--- a/data/excel_templates/chembot_pool_list.xlsx
+++ b/data/excel_templates/chembot_pool_list.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\chemistry_bot\data\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCC6D25-89BA-45A4-9DFC-8F4BDDD35637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64691FCD-4252-4D1B-A91D-56510A556E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{707B2A35-8D40-474B-B11E-96A2BCC3C658}"/>
+    <workbookView xWindow="9600" yWindow="690" windowWidth="28800" windowHeight="15345" xr2:uid="{707B2A35-8D40-474B-B11E-96A2BCC3C658}"/>
   </bookViews>
   <sheets>
-    <sheet name="Основной лист" sheetId="1" r:id="rId1"/>
+    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
